--- a/data/924/NBS/Money Supply.xlsx
+++ b/data/924/NBS/Money Supply.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PS7"/>
+  <dimension ref="A1:PT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2170 +374,2175 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
@@ -2551,804 +2556,806 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2431022.72</v>
+        <v>2441500</v>
       </c>
       <c r="D2" t="n">
+        <v>2431000</v>
+      </c>
+      <c r="E2" t="n">
         <v>2382899.56</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2356012.76</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2336160.48</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2342829.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2312267.68</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2302153.82</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2317788.36</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2275538.07</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2262107.12</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>2276488.45</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2236030.26</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>2213047.33</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>2186795.89</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>2172002.55</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2149720.42</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>2164084.8</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>2136836.91</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>2125458.46</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>2134948.66</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>2100183.74</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>2093533.83</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>2080923.41</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>2030830.42</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>2023066.49</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>1986488.82</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>1961429.56</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1945600.55</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>1952250.49</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>1935492.43</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>1919410.82</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>1921360.19</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>1891153.7</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>1884670.33</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>1889412.14</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>1867427.45</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>1865935.33</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1826744.22</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>1813175.07</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>1795561.6</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>1801665.58</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>1788670.43</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>1776196.11</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>1770178.37</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>1743063.79</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>1737683.73</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>1739859.48</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>1729070.12</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>1720814.46</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>1676768.54</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>1670013.4</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>1653434.16</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>1655662.07</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>1645156.6</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>1628996.63</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>1631282.53</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>1601360.42</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>1596331.87</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>1599609.57</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>1582913.07</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>1575945.59</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>1550066.67</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>1530432.06</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>1519485.4</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>1516360.5</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>1510982.91</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>1491558.72</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>1490491.83</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>1461695.11</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>1445209.59</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>1446198.03</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>1424618.68</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>1416319.55</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>1392278.11</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>1373956.01</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>1361020.7</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>1359824.06</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>1356907.98</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>1353210.92</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>1333375.36</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>1307357.63</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>1280779.14</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>1275332.78</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>1257380.48</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CJ2" t="n">
         <v>1242710.22</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CK2" t="n">
         <v>1228374.81</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>1208605.95</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>1199236.31</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>1202051.41</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>1197499.08</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>1194249.24</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>1209587.2</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>1182293.96</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>1168812.67</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>1160687.38</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CU2" t="n">
         <v>1131760.83</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CV2" t="n">
         <v>1123521.21</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CW2" t="n">
         <v>1106524.98</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>1079257.06</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>1070242.17</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>1077379.16</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>1061256.43</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>1052212.34</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>1054403.69</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>1042169.16</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>1032551.9</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>1035858.37</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DG2" t="n">
         <v>998600.83</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>992129.25</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>974159.46</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>944832.4</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>936404.28</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>943688.75</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>924894.59</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>919072.4</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>924991.2</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>900048.77</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>889604.04</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>895565.5</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>867171.42</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>855898.89</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>851590.9</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>825493.9399999999</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>816829.25</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>787406.2</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>780852.3</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>772923.65</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>780820.85</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>763409.22</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>757384.5600000001</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>758130.88</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>736130.86</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>733884.83</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>725851.79</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>710339.03</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>699776.74</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>696471.5</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>687506.92</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>674051.48</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>673921.72</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>663351.37</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>656561.22</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>649947.46</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>636072.26</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>625609.29</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>610224.52</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>594604.72</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>586643.29</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>585405.34</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>576698.95</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>573102.85</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>568916.2</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>548263.51</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>540481.21</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>530626.71</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>506708.07</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>496135.31</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>475166.6</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>458644.66</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>453133.32</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>452898.71</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>448846.68</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>446362.17</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>443141.02</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>436221.6</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>429313.72</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>423054.53</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>421037.84</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
         <v>417846.17</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FQ2" t="n">
         <v>403401.3</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>399757.91</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>394204.17</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>393098.91</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>387205.04</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>383884.88</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>377832.15</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>369718.15</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>367326.45</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>364104.66</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>358659.25</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GB2" t="n">
         <v>351498.77</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GC2" t="n">
         <v>345577.91</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>337504.15</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>332747.17</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>331865.36</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>327885.67</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>324010.76</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>322756.35</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>316709.81</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>313702.34</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>310490.65</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>304516.27</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GN2" t="n">
         <v>303571.65</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GO2" t="n">
         <v>298755.48</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GP2" t="n">
         <v>292350.39</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GQ2" t="n">
         <v>287591.61</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>287438.27</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>281288.22</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GT2" t="n">
         <v>276966.28</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GU2" t="n">
         <v>275785.53</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GV2" t="n">
         <v>269240.49</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>266992.66</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>264588.94</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>259357.29</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="GZ2" t="n">
         <v>257708.47</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HA2" t="n">
         <v>253207.7</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>247135.58</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>243740</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>243757</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>239729.19</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HF2" t="n">
         <v>234842.4</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HG2" t="n">
         <v>238427.49</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HH2" t="n">
         <v>234842.4</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>233627.86</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>231654.6</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HK2" t="n">
         <v>227050.72</v>
       </c>
-      <c r="HK2" t="n">
+      <c r="HL2" t="n">
         <v>225101.93</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HM2" t="n">
         <v>219226.81</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>214358.84</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>212505.4</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HP2" t="n">
         <v>211611.5</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HQ2" t="n">
         <v>208692.4</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HR2" t="n">
         <v>204381.1</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HS2" t="n">
         <v>203071.74</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>197811.96</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>194476.98</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>192832.44</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>188444.37</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HX2" t="n">
         <v>188918.38</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HY2" t="n">
         <v>183246.94</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>178018.43</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>175534.74</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>175254.87</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>171524.2</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>169122.95</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>167869.41</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>164268.36</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>162825.22</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>162300.93</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>159182.97</v>
       </c>
-      <c r="II2" t="n">
+      <c r="IJ2" t="n">
         <v>157853.45</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
         <v>152888.5</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IL2" t="n">
         <v>154088.3</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>146157.58</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>151822.6</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IO2" t="n">
         <v>143787.3</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IP2" t="n">
         <v>140076.48</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IQ2" t="n">
         <v>141885.6</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>137219.27</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>138121.03</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>136915.12</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>134390.49</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IV2" t="n">
         <v>135685.99</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IW2" t="n">
         <v>132487.52</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>128887.4</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>127432.53</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>128352.61</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JA2" t="n">
         <v>125673.26</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JB2" t="n">
         <v>124192.78</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JC2" t="n">
         <v>124486.78</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>121902.65</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>121914.77</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>120399.58</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>119353.6</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JH2" t="n">
         <v>118907.8</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JI2" t="n">
         <v>117638.1</v>
       </c>
-      <c r="JI2" t="inlineStr"/>
       <c r="JJ2" t="inlineStr"/>
       <c r="JK2" t="inlineStr"/>
       <c r="JL2" t="inlineStr"/>
@@ -3515,6 +3522,7 @@
       <c r="PQ2" t="inlineStr"/>
       <c r="PR2" t="inlineStr"/>
       <c r="PS2" t="inlineStr"/>
+      <c r="PT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3524,64 +3532,64 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>8.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>8.1</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>9.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>10.1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>9.4</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>10.1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>10.7</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>10.5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>10.9</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>10.4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>10.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>11.1</v>
       </c>
       <c r="W3" t="n">
         <v>11.1</v>
@@ -3590,34 +3598,34 @@
         <v>11.1</v>
       </c>
       <c r="Y3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Z3" t="n">
         <v>10.1</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.4</v>
       </c>
       <c r="AE3" t="n">
         <v>8.4</v>
       </c>
       <c r="AF3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>8.1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>8.5</v>
@@ -3626,415 +3634,415 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>8.6</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>8</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>8.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR3" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>8.5</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>8</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="AV3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="AW3" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AX3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>8.6</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>9.1</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>8.9</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>9.4</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>9.6</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>10.5</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>10.6</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>11.1</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>11.3</v>
       </c>
       <c r="BL3" t="n">
         <v>11.3</v>
       </c>
       <c r="BM3" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="BN3" t="n">
         <v>11.4</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>11.6</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>11.5</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>11.4</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>10.2</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>11.8</v>
       </c>
       <c r="BS3" t="n">
         <v>11.8</v>
       </c>
       <c r="BT3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="BU3" t="n">
         <v>12.8</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>13.4</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>13.3</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3" t="n">
         <v>14</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BY3" t="n">
         <v>13.3</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>13.7</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>13.5</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>13.1</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>13.3</v>
       </c>
       <c r="CC3" t="n">
         <v>13.3</v>
       </c>
       <c r="CD3" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="CE3" t="n">
         <v>11.8</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>10.8</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>10.1</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>11.6</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>12.5</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CJ3" t="n">
         <v>10.8</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CK3" t="n">
         <v>12.2</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>12.3</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>12.6</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>12.9</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>12.8</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>13.5</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>14.7</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>13.4</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>13.2</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>12.1</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>13.3</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CV3" t="n">
         <v>13.2</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CW3" t="n">
         <v>13.6</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>14.2</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CY3" t="n">
         <v>14.3</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>14.2</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>14.7</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>14.5</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>14</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>15.8</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>16.1</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>15.7</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>15.2</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DH3" t="n">
         <v>15.9</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DI3" t="n">
         <v>13.8</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>13.9</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>14.1</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>14.8</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>13.5</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>13.9</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>13.6</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>13.2</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>12.8</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>13.4</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>13</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>12.4</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>13.6</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>12.7</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>12.9</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>13</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>13.6</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>14.7</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>15.9</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>15.1</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>15.3</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>16.6</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>15.7</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>17.2</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>19.7</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>19.5</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>19.3</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>19</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>19.2</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>17.6</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>18.5</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>21</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>21.5</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>22.5</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>25.5</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>26</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>27.7</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>29.7</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>29.4</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>29.3</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>28.5</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>28.4</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>28.5</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>25.7</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>26</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>25.5</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>20.5</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>18.8</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>17.8</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>14.8</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>15</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>15.3</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>16</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>16.4</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>17.4</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FL3" t="n">
         <v>18.1</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>16.9</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FN3" t="n">
         <v>16.2</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>17.4</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FP3" t="n">
         <v>18.9</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FQ3" t="n">
         <v>16.7</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>18.5</v>
       </c>
       <c r="FR3" t="n">
         <v>18.5</v>
@@ -4043,285 +4051,287 @@
         <v>18.5</v>
       </c>
       <c r="FT3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="FU3" t="n">
         <v>18.1</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FV3" t="n">
         <v>18.5</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FW3" t="n">
         <v>17.1</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FX3" t="n">
         <v>16.7</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FY3" t="n">
         <v>17.1</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="FZ3" t="n">
         <v>17.3</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>17.8</v>
       </c>
-      <c r="GA3" t="n">
+      <c r="GB3" t="n">
         <v>15.8</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GC3" t="n">
         <v>16.9</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GD3" t="n">
         <v>16.8</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GE3" t="n">
         <v>17.1</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GF3" t="n">
         <v>16.8</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GG3" t="n">
         <v>17.9</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>18.4</v>
       </c>
       <c r="GH3" t="n">
         <v>18.4</v>
       </c>
       <c r="GI3" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="GJ3" t="n">
         <v>19.1</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GK3" t="n">
         <v>18.9</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>18.8</v>
       </c>
       <c r="GL3" t="n">
         <v>18.8</v>
       </c>
       <c r="GM3" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="GN3" t="n">
         <v>19.2</v>
       </c>
-      <c r="GN3" t="n">
+      <c r="GO3" t="n">
         <v>17.6</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GP3" t="n">
         <v>18.3</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GQ3" t="n">
         <v>18</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GR3" t="n">
         <v>17.9</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="GS3" t="n">
         <v>17.3</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="GT3" t="n">
         <v>16.3</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="GU3" t="n">
         <v>15.7</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GV3" t="n">
         <v>14.7</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GW3" t="n">
         <v>14.1</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GX3" t="n">
         <v>14</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GY3" t="n">
         <v>13.9</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="GZ3" t="n">
         <v>14.1</v>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HA3" t="n">
         <v>14.6</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HB3" t="n">
         <v>14</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HC3" t="n">
         <v>13.5</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HD3" t="n">
         <v>13.9</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HE3" t="n">
         <v>13.6</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HF3" t="n">
         <v>15.3</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HG3" t="n">
         <v>16.2</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HH3" t="n">
         <v>17.5</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>19.1</v>
       </c>
       <c r="HI3" t="n">
         <v>19.1</v>
       </c>
       <c r="HJ3" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="HK3" t="n">
         <v>19.4</v>
       </c>
-      <c r="HK3" t="n">
+      <c r="HL3" t="n">
         <v>18.1</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HM3" t="n">
         <v>19.6</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HN3" t="n">
         <v>20.4</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HO3" t="n">
         <v>21</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HP3" t="n">
         <v>20.7</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HQ3" t="n">
         <v>21.6</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HR3" t="n">
         <v>20.7</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HS3" t="n">
         <v>20.8</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HT3" t="n">
         <v>20.2</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HU3" t="n">
         <v>19.2</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HV3" t="n">
         <v>18.5</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HW3" t="n">
         <v>18.1</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HX3" t="n">
         <v>19.3</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HY3" t="n">
         <v>16.8</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HZ3" t="n">
         <v>16.6</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IA3" t="n">
         <v>17</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IB3" t="n">
         <v>16.5</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IC3" t="n">
         <v>15.5</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="ID3" t="n">
         <v>14.4</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IE3" t="n">
         <v>14.7</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IF3" t="n">
         <v>14</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
         <v>14.1</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IH3" t="n">
         <v>14.4</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="II3" t="n">
         <v>13</v>
       </c>
-      <c r="II3" t="n">
+      <c r="IJ3" t="n">
         <v>13.1</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
         <v>14.4</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IL3" t="n">
         <v>17.6</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IM3" t="n">
         <v>12.9</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IN3" t="n">
         <v>16.4</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IO3" t="n">
         <v>13.6</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IP3" t="n">
         <v>13.5</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IQ3" t="n">
         <v>14.3</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IR3" t="n">
         <v>12.1</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IS3" t="n">
         <v>12.8</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IT3" t="n">
         <v>13.2</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IU3" t="n">
         <v>12</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IV3" t="n">
         <v>13.5</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IW3" t="n">
         <v>12.3</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>12.4</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IY3" t="n">
         <v>12.3</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IZ3" t="n">
         <v>13.4</v>
       </c>
-      <c r="IZ3" t="n">
+      <c r="JA3" t="n">
         <v>13.3</v>
       </c>
-      <c r="JA3" t="n">
+      <c r="JB3" t="n">
         <v>13.4</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JC3" t="n">
         <v>13.7</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>12.7</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>13.7</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JF3" t="n">
         <v>13</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>12.8</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JH3" t="n">
         <v>14.9</v>
       </c>
-      <c r="JH3" t="n">
+      <c r="JI3" t="n">
         <v>14.7</v>
       </c>
-      <c r="JI3" t="inlineStr"/>
       <c r="JJ3" t="inlineStr"/>
       <c r="JK3" t="inlineStr"/>
       <c r="JL3" t="inlineStr"/>
@@ -4488,6 +4498,7 @@
       <c r="PQ3" t="inlineStr"/>
       <c r="PR3" t="inlineStr"/>
       <c r="PS3" t="inlineStr"/>
+      <c r="PT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4497,804 +4508,806 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>613859.35</v>
+        <v>621600</v>
       </c>
       <c r="D4" t="n">
+        <v>613900</v>
+      </c>
+      <c r="E4" t="n">
         <v>647443.35</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>637482.04</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>626082.12</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>624645.6800000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>626658.6899999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>620367.05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>637479.36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>616828.3199999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>605421.89</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>616113.17</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>593487.46</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>625563.8100000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>625580.99</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>618632.17</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>609182.41</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>602312.12</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>601289.1</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>591192.64</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>604317.97</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>581111.0600000001</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>570150.48</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>575050.29</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>552700.73</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>545531.79</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>576009.15</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>562486.52</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>558143.92</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>557137.95</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>556798.09</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>553043.11</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>567696.1800000001</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>544355.64</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>540614.6</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>547575.54</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>527190.48</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>545638.46</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>551685.91</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>543498.66</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>540128.37</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>538574.08</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>538324.64</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>536624.29</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>543944.71</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>526276.72</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>525447.77</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>523540.07</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>517035.99</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>543247.13</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>543790.15</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>535565.05</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>525977.1899999999</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>517863.04</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>518113.93</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>510484.58</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>510228.17</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>496389.78</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>490180.42</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>488770.09</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BK4" t="n">
         <v>476527.6</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4" t="n">
         <v>472526.45</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4" t="n">
         <v>486557.24</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>475405.54</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>465446.65</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>454340.25</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>454543.6</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>442934.43</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>443643.7</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>424250.7</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>413504.84</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>411581.31</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BW4" t="n">
         <v>392504.7</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4" t="n">
         <v>412685.64</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BY4" t="n">
         <v>400953.44</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>387618.32</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>375806.45</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>364416.9</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>362793.73</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>353122.19</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>356082.86</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>343085.86</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>336388.24</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>337210.52</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CI4" t="n">
         <v>334439.22</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CJ4" t="n">
         <v>348109.5</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CK4" t="n">
         <v>348056.41</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>335114.13</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>329617.73</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CN4" t="n">
         <v>327220.21</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CO4" t="n">
         <v>332023.23</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>331347.32</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CQ4" t="n">
         <v>341487.45</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CR4" t="n">
         <v>327839.56</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CS4" t="n">
         <v>324482.52</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>327683.74</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CU4" t="n">
         <v>316625.11</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CV4" t="n">
         <v>314900.55</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CW4" t="n">
         <v>337291.05</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>324821.92</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CY4" t="n">
         <v>319509.38</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CZ4" t="n">
         <v>312330.34</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DA4" t="n">
         <v>314085.91</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DB4" t="n">
         <v>310596.46</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DC4" t="n">
         <v>313499.82</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DD4" t="n">
         <v>310204.48</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>307648.42</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>310898.29</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DG4" t="n">
         <v>296103.24</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DH4" t="n">
         <v>311228.55</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DI4" t="n">
         <v>308672.99</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>296883</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>293309.78</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>286788.21</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>285739.27</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>283090.68</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>287526.17</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>278656.31</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>274983.82</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>277998.11</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>270312.11</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>270010.4</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>289847.7</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>281416.37</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>276552.67</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>267193.16</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>273393.77</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>270545.65</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>274662.57</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>269289.63</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>266766.91</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>266255.48</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>259200.5</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>261765.01</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>266621.54</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>259420.32</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>253313.17</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>243821.9</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>244340.64</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>240664.07</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>240580</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>236497.88</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>233909.76</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>229397.93</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>224286.95</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>229588.98</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>221445.81</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>212493.2</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>207545.74</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>201708.14</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>200394.83</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>195889.27</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>193138.15</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>182025.58</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>178213.57</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>176541.13</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>166149.6</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>165214.34</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>166217.13</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FF4" t="n">
         <v>157826.63</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FG4" t="n">
         <v>157194.36</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FH4" t="n">
         <v>155748.97</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FI4" t="n">
         <v>156889.92</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FJ4" t="n">
         <v>154992.44</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>154820.15</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FL4" t="n">
         <v>153344.75</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>151694.91</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>150867.47</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>150177.88</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FP4" t="n">
         <v>154872.59</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FQ4" t="n">
         <v>152519.17</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FR4" t="n">
         <v>148009.82</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FS4" t="n">
         <v>144649.33</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FT4" t="n">
         <v>142591.57</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>140993.21</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FV4" t="n">
         <v>136237.43</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FW4" t="n">
         <v>135847.4</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FX4" t="n">
         <v>130275.8</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FY4" t="n">
         <v>127678.33</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="FZ4" t="n">
         <v>127881.31</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GA4" t="n">
         <v>126258.08</v>
       </c>
-      <c r="GA4" t="n">
+      <c r="GB4" t="n">
         <v>128484.06</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GC4" t="n">
         <v>126028.05</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GD4" t="n">
         <v>121644.95</v>
       </c>
-      <c r="GD4" t="n">
+      <c r="GE4" t="n">
         <v>118359.96</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GF4" t="n">
         <v>116814.1</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GG4" t="n">
         <v>114845.67</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GH4" t="n">
         <v>112653.04</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GI4" t="n">
         <v>112342.36</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GJ4" t="n">
         <v>109219.22</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GK4" t="n">
         <v>106389.11</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GL4" t="n">
         <v>106737.08</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GM4" t="n">
         <v>104357.08</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GN4" t="n">
         <v>107250.68</v>
       </c>
-      <c r="GN4" t="n">
+      <c r="GO4" t="n">
         <v>107278.57</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GP4" t="n">
         <v>104125.78</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="GQ4" t="n">
         <v>101751.98</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="GR4" t="n">
         <v>100964</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="GS4" t="n">
         <v>99377.7</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="GT4" t="n">
         <v>97674.10000000001</v>
       </c>
-      <c r="GT4" t="n">
+      <c r="GU4" t="n">
         <v>98601.25</v>
       </c>
-      <c r="GU4" t="n">
+      <c r="GV4" t="n">
         <v>95802.00999999999</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="GW4" t="n">
         <v>94593.72</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GX4" t="n">
         <v>94743.19</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GY4" t="n">
         <v>92814.95</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="GZ4" t="n">
         <v>97079.03</v>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HA4" t="n">
         <v>95970.82000000001</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HB4" t="n">
         <v>92387.13</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HC4" t="n">
         <v>90782</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HD4" t="n">
         <v>90439</v>
       </c>
-      <c r="HD4" t="n">
+      <c r="HE4" t="n">
         <v>89125.33</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HF4" t="n">
         <v>86780.37</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HG4" t="n">
         <v>88627.14</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HH4" t="n">
         <v>86780.37</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HI4" t="n">
         <v>85603.64</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HJ4" t="n">
         <v>85815.57000000001</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HK4" t="n">
         <v>83556.42999999999</v>
       </c>
-      <c r="HK4" t="n">
+      <c r="HL4" t="n">
         <v>83805.89999999999</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HM4" t="n">
         <v>84118.81</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HN4" t="n">
         <v>80815.22</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HO4" t="n">
         <v>80267.37</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HP4" t="n">
         <v>79164.14</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HQ4" t="n">
         <v>77033.3</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HR4" t="n">
         <v>76153.03999999999</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HS4" t="n">
         <v>75923.52</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HT4" t="n">
         <v>72778.14999999999</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HU4" t="n">
         <v>71321.53999999999</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HV4" t="n">
         <v>71439.21000000001</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HW4" t="n">
         <v>69757.05</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HX4" t="n">
         <v>72406.05</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HY4" t="n">
         <v>70882.19</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HZ4" t="n">
         <v>67993.28</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IA4" t="n">
         <v>67100.77</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IB4" t="n">
         <v>66800.28999999999</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IC4" t="n">
         <v>64869.5</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="ID4" t="n">
         <v>63488.41</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IE4" t="n">
         <v>63144.69</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IF4" t="n">
         <v>61247.53</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IG4" t="n">
         <v>60462.04</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>59475.67</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="II4" t="n">
         <v>58703.97</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IJ4" t="n">
         <v>60577.23</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IK4" t="n">
         <v>59871.59</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IL4" t="n">
         <v>56579.6</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IM4" t="n">
         <v>56114.9</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IN4" t="n">
         <v>56824</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IO4" t="n">
         <v>55808.92</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IP4" t="n">
         <v>53502.8</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IQ4" t="n">
         <v>55187.36</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IR4" t="n">
         <v>52542.99</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IS4" t="n">
         <v>53261.32</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IT4" t="n">
         <v>53033.36</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IU4" t="n">
         <v>51997.68</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IV4" t="n">
         <v>54406.23</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IW4" t="n">
         <v>53147.15</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IX4" t="n">
         <v>50787.49</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IY4" t="n">
         <v>49952.84</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IZ4" t="n">
         <v>50616.89</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="JA4" t="n">
         <v>48885.38</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JB4" t="n">
         <v>47803.09</v>
       </c>
-      <c r="JB4" t="n">
+      <c r="JC4" t="n">
         <v>48024.4</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JD4" t="n">
         <v>46490.23</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JE4" t="n">
         <v>46319.03</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JF4" t="n">
         <v>45158.45</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JG4" t="n">
         <v>44679.2</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JH4" t="n">
         <v>46570.1</v>
       </c>
-      <c r="JH4" t="n">
+      <c r="JI4" t="n">
         <v>45837.3</v>
       </c>
-      <c r="JI4" t="inlineStr"/>
       <c r="JJ4" t="inlineStr"/>
       <c r="JK4" t="inlineStr"/>
       <c r="JL4" t="inlineStr"/>
@@ -5461,6 +5474,7 @@
       <c r="PQ4" t="inlineStr"/>
       <c r="PR4" t="inlineStr"/>
       <c r="PS4" t="inlineStr"/>
+      <c r="PT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5470,262 +5484,262 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D5" t="n">
         <v>-1.9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>3.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2.8</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>4.2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>4.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>6.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>6.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>7.1</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>7.4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>14.7</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>8.6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>10</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>9.1</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>8.1</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>8</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>6.9</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>6.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>6.8</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>4.8</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>4.4</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>3.5</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>3.3</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3.4</v>
       </c>
       <c r="AF5" t="n">
         <v>3.4</v>
       </c>
       <c r="AG5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH5" t="n">
         <v>3.1</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>4.4</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>3.4</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>2.9</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>4.6</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>2</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>0.4</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1.5</v>
       </c>
       <c r="AP5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>2.7</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>4</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>3.9</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>5.1</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>6.6</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>6</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>7.2</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>7.1</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>15</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>11.8</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>12.7</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>13</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>14</v>
       </c>
       <c r="BD5" t="n">
         <v>14</v>
       </c>
       <c r="BE5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF5" t="n">
         <v>15.3</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>15</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>17</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>18.5</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>18.8</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>21.4</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>14.5</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5" t="n">
         <v>21.4</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>22.7</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>23.9</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>24.7</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>25.3</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>25.4</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>24.6</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
         <v>23.7</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5" t="n">
         <v>22.9</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5" t="n">
         <v>22.1</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5" t="n">
         <v>17.4</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BX5" t="n">
         <v>18.6</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BY5" t="n">
         <v>15.2</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>15.7</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>14</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5" t="n">
         <v>11.4</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5" t="n">
         <v>6.6</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5" t="n">
         <v>4.3</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5" t="n">
         <v>4.7</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CG5" t="n">
         <v>3.7</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5" t="n">
         <v>2.9</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>5.6</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CJ5" t="n">
         <v>10.6</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>3.2</v>
       </c>
       <c r="CK5" t="n">
         <v>3.2</v>
@@ -5734,540 +5748,542 @@
         <v>3.2</v>
       </c>
       <c r="CM5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="CN5" t="n">
         <v>4.8</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CO5" t="n">
         <v>5.7</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CP5" t="n">
         <v>6.7</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CQ5" t="n">
         <v>8.9</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CR5" t="n">
         <v>5.7</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CS5" t="n">
         <v>5.5</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CT5" t="n">
         <v>5.4</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CU5" t="n">
         <v>6.9</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CV5" t="n">
         <v>1.2</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CW5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CX5" t="n">
         <v>9.4</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>8.9</v>
       </c>
       <c r="CY5" t="n">
         <v>8.9</v>
       </c>
       <c r="CZ5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="DA5" t="n">
         <v>9.9</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DB5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DC5" t="n">
         <v>9</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DD5" t="n">
         <v>11.3</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DE5" t="n">
         <v>11.9</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>11.8</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>9.5</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DH5" t="n">
         <v>15.3</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DI5" t="n">
         <v>6.5</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>5.5</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>6.1</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>7.3</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DM5" t="n">
         <v>4.5</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>4.6</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>4.7</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>3.5</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>3.1</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>4.4</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>4.3</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>3.2</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>7.9</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>7.8</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>8.4</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>8.9</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>11.2</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>11.6</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>13.1</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>12.7</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>12.9</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>15</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>14.5</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>13.6</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>21.2</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>22.1</v>
       </c>
       <c r="EH5" t="n">
         <v>22.1</v>
       </c>
       <c r="EI5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="EJ5" t="n">
         <v>20.9</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>21.9</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>22.9</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>24.6</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>29.9</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>31.3</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>29.9</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>35</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>39</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>32.4</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>36.6</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>32</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>29.5</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>27.7</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>26.4</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>24.8</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>18.7</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>17.5</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>17</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>10.9</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>6.7</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>9.1</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>6.8</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FG5" t="n">
         <v>8.9</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="FH5" t="n">
         <v>9.4</v>
       </c>
-      <c r="FH5" t="n">
+      <c r="FI5" t="n">
         <v>11.5</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FJ5" t="n">
         <v>14</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FK5" t="n">
         <v>14.2</v>
       </c>
-      <c r="FK5" t="n">
+      <c r="FL5" t="n">
         <v>17.9</v>
       </c>
-      <c r="FL5" t="n">
+      <c r="FM5" t="n">
         <v>19.1</v>
       </c>
-      <c r="FM5" t="n">
+      <c r="FN5" t="n">
         <v>18</v>
       </c>
-      <c r="FN5" t="n">
+      <c r="FO5" t="n">
         <v>19</v>
       </c>
-      <c r="FO5" t="n">
+      <c r="FP5" t="n">
         <v>20.5</v>
       </c>
-      <c r="FP5" t="n">
+      <c r="FQ5" t="n">
         <v>21</v>
       </c>
-      <c r="FQ5" t="n">
+      <c r="FR5" t="n">
         <v>21.7</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FS5" t="n">
         <v>22.2</v>
       </c>
-      <c r="FS5" t="n">
+      <c r="FT5" t="n">
         <v>22.1</v>
       </c>
-      <c r="FT5" t="n">
+      <c r="FU5" t="n">
         <v>22.8</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>20.9</v>
       </c>
       <c r="FV5" t="n">
         <v>20.9</v>
       </c>
       <c r="FW5" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="FX5" t="n">
         <v>19.3</v>
       </c>
-      <c r="FX5" t="n">
+      <c r="FY5" t="n">
         <v>20</v>
       </c>
-      <c r="FY5" t="n">
+      <c r="FZ5" t="n">
         <v>19.8</v>
       </c>
-      <c r="FZ5" t="n">
+      <c r="GA5" t="n">
         <v>21</v>
       </c>
-      <c r="GA5" t="n">
+      <c r="GB5" t="n">
         <v>19.8</v>
       </c>
-      <c r="GB5" t="n">
+      <c r="GC5" t="n">
         <v>17.5</v>
       </c>
-      <c r="GC5" t="n">
+      <c r="GD5" t="n">
         <v>16.8</v>
       </c>
-      <c r="GD5" t="n">
+      <c r="GE5" t="n">
         <v>16.3</v>
       </c>
-      <c r="GE5" t="n">
+      <c r="GF5" t="n">
         <v>15.7</v>
       </c>
-      <c r="GF5" t="n">
+      <c r="GG5" t="n">
         <v>15.6</v>
       </c>
-      <c r="GG5" t="n">
+      <c r="GH5" t="n">
         <v>15.3</v>
       </c>
-      <c r="GH5" t="n">
+      <c r="GI5" t="n">
         <v>13.9</v>
       </c>
-      <c r="GI5" t="n">
+      <c r="GJ5" t="n">
         <v>14</v>
       </c>
-      <c r="GJ5" t="n">
+      <c r="GK5" t="n">
         <v>12.5</v>
       </c>
-      <c r="GK5" t="n">
+      <c r="GL5" t="n">
         <v>12.7</v>
       </c>
-      <c r="GL5" t="n">
+      <c r="GM5" t="n">
         <v>12.4</v>
       </c>
-      <c r="GM5" t="n">
+      <c r="GN5" t="n">
         <v>10.6</v>
       </c>
-      <c r="GN5" t="n">
+      <c r="GO5" t="n">
         <v>11.8</v>
       </c>
-      <c r="GO5" t="n">
+      <c r="GP5" t="n">
         <v>12.7</v>
       </c>
-      <c r="GP5" t="n">
+      <c r="GQ5" t="n">
         <v>12.1</v>
       </c>
-      <c r="GQ5" t="n">
+      <c r="GR5" t="n">
         <v>11.6</v>
       </c>
-      <c r="GR5" t="n">
+      <c r="GS5" t="n">
         <v>11.5</v>
       </c>
-      <c r="GS5" t="n">
+      <c r="GT5" t="n">
         <v>11</v>
       </c>
-      <c r="GT5" t="n">
+      <c r="GU5" t="n">
         <v>11.3</v>
       </c>
-      <c r="GU5" t="n">
+      <c r="GV5" t="n">
         <v>10.4</v>
       </c>
-      <c r="GV5" t="n">
+      <c r="GW5" t="n">
         <v>10</v>
       </c>
-      <c r="GW5" t="n">
+      <c r="GX5" t="n">
         <v>9.9</v>
       </c>
-      <c r="GX5" t="n">
+      <c r="GY5" t="n">
         <v>10.6</v>
       </c>
-      <c r="GY5" t="n">
+      <c r="GZ5" t="n">
         <v>15.3</v>
       </c>
-      <c r="GZ5" t="n">
+      <c r="HA5" t="n">
         <v>13.6</v>
       </c>
-      <c r="HA5" t="n">
+      <c r="HB5" t="n">
         <v>13.8</v>
       </c>
-      <c r="HB5" t="n">
+      <c r="HC5" t="n">
         <v>12.6</v>
       </c>
-      <c r="HC5" t="n">
+      <c r="HD5" t="n">
         <v>13.7</v>
       </c>
-      <c r="HD5" t="n">
+      <c r="HE5" t="n">
         <v>15.1</v>
       </c>
-      <c r="HE5" t="n">
+      <c r="HF5" t="n">
         <v>15</v>
       </c>
-      <c r="HF5" t="n">
+      <c r="HG5" t="n">
         <v>16.2</v>
       </c>
-      <c r="HG5" t="n">
+      <c r="HH5" t="n">
         <v>18.6</v>
       </c>
-      <c r="HH5" t="n">
+      <c r="HI5" t="n">
         <v>20</v>
       </c>
-      <c r="HI5" t="n">
+      <c r="HJ5" t="n">
         <v>20.1</v>
       </c>
-      <c r="HJ5" t="n">
+      <c r="HK5" t="n">
         <v>19.8</v>
       </c>
-      <c r="HK5" t="n">
+      <c r="HL5" t="n">
         <v>15.7</v>
       </c>
-      <c r="HL5" t="n">
+      <c r="HM5" t="n">
         <v>18.7</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HN5" t="n">
         <v>18.9</v>
       </c>
-      <c r="HN5" t="n">
+      <c r="HO5" t="n">
         <v>19.6</v>
       </c>
-      <c r="HO5" t="n">
+      <c r="HP5" t="n">
         <v>18.5</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HQ5" t="n">
         <v>18.8</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HR5" t="n">
         <v>20</v>
       </c>
-      <c r="HR5" t="n">
+      <c r="HS5" t="n">
         <v>20.2</v>
       </c>
-      <c r="HS5" t="n">
+      <c r="HT5" t="n">
         <v>18.8</v>
       </c>
-      <c r="HT5" t="n">
+      <c r="HU5" t="n">
         <v>18</v>
       </c>
-      <c r="HU5" t="n">
+      <c r="HV5" t="n">
         <v>20.1</v>
       </c>
-      <c r="HV5" t="n">
+      <c r="HW5" t="n">
         <v>18.8</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="HX5" t="n">
         <v>19.5</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="HY5" t="n">
         <v>16.8</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="HZ5" t="n">
         <v>18.5</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="IA5" t="n">
         <v>17.9</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IB5" t="n">
         <v>15.9</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IC5" t="n">
         <v>14.6</v>
       </c>
-      <c r="IC5" t="n">
+      <c r="ID5" t="n">
         <v>17</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="IE5" t="n">
         <v>12.8</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IF5" t="n">
         <v>14.6</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IG5" t="n">
         <v>11.5</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IH5" t="n">
         <v>10.1</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="II5" t="n">
         <v>10.9</v>
       </c>
-      <c r="II5" t="n">
+      <c r="IJ5" t="n">
         <v>9.5</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IK5" t="n">
         <v>12.7</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IL5" t="n">
         <v>11.4</v>
-      </c>
-      <c r="IL5" t="n">
-        <v>12.3</v>
       </c>
       <c r="IM5" t="n">
         <v>12.3</v>
       </c>
       <c r="IN5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="IO5" t="n">
         <v>14.2</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IP5" t="n">
         <v>11.9</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IQ5" t="n">
         <v>14.9</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IR5" t="n">
         <v>13</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IS5" t="n">
         <v>15</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IT5" t="n">
         <v>17.4</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IU5" t="n">
         <v>16.4</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IV5" t="n">
         <v>16.8</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IW5" t="n">
         <v>16</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IX5" t="n">
         <v>17.1</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IY5" t="n">
         <v>18.2</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IZ5" t="n">
         <v>20.8</v>
       </c>
-      <c r="IZ5" t="n">
+      <c r="JA5" t="n">
         <v>21.9</v>
       </c>
-      <c r="JA5" t="n">
+      <c r="JB5" t="n">
         <v>22.6</v>
       </c>
-      <c r="JB5" t="n">
+      <c r="JC5" t="n">
         <v>23.7</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JD5" t="n">
         <v>22.3</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JE5" t="n">
         <v>21.7</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JF5" t="n">
         <v>18.7</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JG5" t="n">
         <v>15.3</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JH5" t="n">
         <v>19.4</v>
       </c>
-      <c r="JH5" t="n">
+      <c r="JI5" t="n">
         <v>17.7</v>
       </c>
-      <c r="JI5" t="inlineStr"/>
       <c r="JJ5" t="inlineStr"/>
       <c r="JK5" t="inlineStr"/>
       <c r="JL5" t="inlineStr"/>
@@ -6434,6 +6450,7 @@
       <c r="PQ5" t="inlineStr"/>
       <c r="PR5" t="inlineStr"/>
       <c r="PS5" t="inlineStr"/>
+      <c r="PT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6443,804 +6460,806 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>106188.87</v>
+        <v>97200</v>
       </c>
       <c r="D6" t="n">
+        <v>106200</v>
+      </c>
+      <c r="E6" t="n">
         <v>90825.14999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>87433.41</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>86085.78</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>86867.09</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>85059.2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>84717.56</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>84346.97</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>84177.72</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>85803.37</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>86543.64</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>91924.60000000001</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>89625.24000000001</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>84314.53</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>81593.61</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>81036.42999999999</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>82370.87</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>80042.71000000001</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>79867.21000000001</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>79459.41</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>79706.83</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>81485.21000000001</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>83022.21000000001</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>88187.05</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>93249.16</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>77189.47</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>73973.82000000001</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>73395.39999999999</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>74129.75</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>73152.62</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>72689.25</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>72580.96000000001</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>72798.46000000001</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>73965.75999999999</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>74941.58</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>79484.72</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>87470.62</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>73208.39999999999</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>70563.3</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>70106.62</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>71254.25999999999</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>69775.39</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>69530.59</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>69589.33</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>69774.81</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>71476.46000000001</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>72692.63</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>81424.24000000001</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>74636.28999999999</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>70645.60000000001</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>68623.16</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>68230.69</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>69748.53999999999</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>67550.99000000001</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>67129.03999999999</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>66977.67999999999</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>67333.21000000001</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>68392.60000000001</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6" t="n">
         <v>68605.05</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6" t="n">
         <v>71727.69</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>86598.61</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BM6" t="n">
         <v>68303.87</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>64903.5</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>64214.93</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>65068.62</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>63454.7</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>63276.01</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>62818.89</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>62780.71</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>64403.17</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>64651.21</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6" t="n">
         <v>69421.5</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BX6" t="n">
         <v>72526.50999999999</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BY6" t="n">
         <v>63216.58</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6" t="n">
         <v>60328.24</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>59900.48</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CB6" t="n">
         <v>61022.97</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>59061.79</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>59010.71</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>58604.26</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>59075.97</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>60772.46</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>61949.81</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CI6" t="n">
         <v>72896.19</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CJ6" t="n">
         <v>63040.51</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CK6" t="n">
         <v>60259.53</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CL6" t="n">
         <v>58438.53</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CM6" t="n">
         <v>57691.64</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CN6" t="n">
         <v>58844.99</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CO6" t="n">
         <v>57997.61</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CP6" t="n">
         <v>57346.5</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CQ6" t="n">
         <v>56951.05</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CR6" t="n">
         <v>58051.11</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>58615.54</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CT6" t="n">
         <v>58329.3</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CU6" t="n">
         <v>62320.95</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CV6" t="n">
         <v>76488.60000000001</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CW6" t="n">
         <v>58574.44</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>56441.27</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>55595.72</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>56492.53</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>54925.35</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>54412.78</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>54063.91</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>54431.39</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DE6" t="n">
         <v>55607.15</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DF6" t="n">
         <v>55460.52</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DG6" t="n">
         <v>60313.65</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DH6" t="n">
         <v>62449.63</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DI6" t="n">
         <v>54659.81</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DJ6" t="n">
         <v>52392.12</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>51467.71</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>53433.49</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>50235.06</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>49705.85</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>49284.64</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>49039.72</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>50199.32</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>49595.74</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>51448.78</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>59820.72</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>50748.46</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>47317.26</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>46579.39</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>47145.29</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>45775.29</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>45183.1</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>44477.8</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>44602.83</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>45489.03</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>44845.22</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>47270.24</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>58063.94</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>44628.17</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>42252.16</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>41646.21</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>41854.41</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>39922.76</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>39543.16</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>38904.85</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>38652.97</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>39657.54</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>39080.58</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>42865.79</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>40758.58</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>38246.97</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>36343.86</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>35730.23</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>36787.89</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>34406.62</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>34239.3</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>33640.98</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>33559.52</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>34257.27</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>33746.42</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>35141.64</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>41082.37</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FE6" t="n">
         <v>34218.96</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FF6" t="n">
         <v>31607.36</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FG6" t="n">
         <v>31317.84</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="FH6" t="n">
         <v>31724.88</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FI6" t="n">
         <v>30851.62</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="FJ6" t="n">
         <v>30687.19</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FK6" t="n">
         <v>30181.32</v>
       </c>
-      <c r="FK6" t="n">
+      <c r="FL6" t="n">
         <v>30169.3</v>
       </c>
-      <c r="FL6" t="n">
+      <c r="FM6" t="n">
         <v>30789.61</v>
       </c>
-      <c r="FM6" t="n">
+      <c r="FN6" t="n">
         <v>30433.07</v>
       </c>
-      <c r="FN6" t="n">
+      <c r="FO6" t="n">
         <v>32454.47</v>
       </c>
-      <c r="FO6" t="n">
+      <c r="FP6" t="n">
         <v>36673.15</v>
       </c>
-      <c r="FP6" t="n">
+      <c r="FQ6" t="n">
         <v>30334.32</v>
       </c>
-      <c r="FQ6" t="n">
+      <c r="FR6" t="n">
         <v>28987.92</v>
       </c>
-      <c r="FR6" t="n">
+      <c r="FS6" t="n">
         <v>28317.78</v>
       </c>
-      <c r="FS6" t="n">
+      <c r="FT6" t="n">
         <v>29030.58</v>
       </c>
-      <c r="FT6" t="n">
+      <c r="FU6" t="n">
         <v>27822.39</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="FV6" t="n">
         <v>27326.26</v>
       </c>
-      <c r="FV6" t="n">
+      <c r="FW6" t="n">
         <v>26881.09</v>
       </c>
-      <c r="FW6" t="n">
+      <c r="FX6" t="n">
         <v>26727.97</v>
       </c>
-      <c r="FX6" t="n">
+      <c r="FY6" t="n">
         <v>27813.88</v>
       </c>
-      <c r="FY6" t="n">
+      <c r="FZ6" t="n">
         <v>27387.95</v>
       </c>
-      <c r="FZ6" t="n">
+      <c r="GA6" t="n">
         <v>30627.93</v>
       </c>
-      <c r="GA6" t="n">
+      <c r="GB6" t="n">
         <v>27949.13</v>
       </c>
-      <c r="GB6" t="n">
+      <c r="GC6" t="n">
         <v>27072.62</v>
       </c>
-      <c r="GC6" t="n">
+      <c r="GD6" t="n">
         <v>25527.25</v>
       </c>
-      <c r="GD6" t="n">
+      <c r="GE6" t="n">
         <v>24964.16</v>
       </c>
-      <c r="GE6" t="n">
+      <c r="GF6" t="n">
         <v>25687.38</v>
       </c>
-      <c r="GF6" t="n">
+      <c r="GG6" t="n">
         <v>24185.36</v>
       </c>
-      <c r="GG6" t="n">
+      <c r="GH6" t="n">
         <v>23752.59</v>
       </c>
-      <c r="GH6" t="n">
+      <c r="GI6" t="n">
         <v>23469.08</v>
       </c>
-      <c r="GI6" t="n">
+      <c r="GJ6" t="n">
         <v>23465.32</v>
       </c>
-      <c r="GJ6" t="n">
+      <c r="GK6" t="n">
         <v>24155.73</v>
       </c>
-      <c r="GK6" t="n">
+      <c r="GL6" t="n">
         <v>23472.03</v>
       </c>
-      <c r="GL6" t="n">
+      <c r="GM6" t="n">
         <v>24482.02</v>
       </c>
-      <c r="GM6" t="n">
+      <c r="GN6" t="n">
         <v>29310.37</v>
       </c>
-      <c r="GN6" t="n">
+      <c r="GO6" t="n">
         <v>24031.67</v>
       </c>
-      <c r="GO6" t="n">
+      <c r="GP6" t="n">
         <v>22409.39</v>
       </c>
-      <c r="GP6" t="n">
+      <c r="GQ6" t="n">
         <v>21892.98</v>
       </c>
-      <c r="GQ6" t="n">
+      <c r="GR6" t="n">
         <v>22272.92</v>
       </c>
-      <c r="GR6" t="n">
+      <c r="GS6" t="n">
         <v>21351.56</v>
       </c>
-      <c r="GS6" t="n">
+      <c r="GT6" t="n">
         <v>21171.2</v>
       </c>
-      <c r="GT6" t="n">
+      <c r="GU6" t="n">
         <v>20848.76</v>
       </c>
-      <c r="GU6" t="n">
+      <c r="GV6" t="n">
         <v>20811.59</v>
       </c>
-      <c r="GV6" t="n">
+      <c r="GW6" t="n">
         <v>21666.56</v>
       </c>
-      <c r="GW6" t="n">
+      <c r="GX6" t="n">
         <v>21238.95</v>
       </c>
-      <c r="GX6" t="n">
+      <c r="GY6" t="n">
         <v>22667.97</v>
       </c>
-      <c r="GY6" t="n">
+      <c r="GZ6" t="n">
         <v>24015.41</v>
       </c>
-      <c r="GZ6" t="n">
+      <c r="HA6" t="n">
         <v>21468.3</v>
       </c>
-      <c r="HA6" t="n">
+      <c r="HB6" t="n">
         <v>20209.25</v>
       </c>
-      <c r="HB6" t="n">
+      <c r="HC6" t="n">
         <v>20078</v>
       </c>
-      <c r="HC6" t="n">
+      <c r="HD6" t="n">
         <v>20524</v>
       </c>
-      <c r="HD6" t="n">
+      <c r="HE6" t="n">
         <v>19517.94</v>
       </c>
-      <c r="HE6" t="n">
+      <c r="HF6" t="n">
         <v>19048.43</v>
       </c>
-      <c r="HF6" t="n">
+      <c r="HG6" t="n">
         <v>19017.58</v>
       </c>
-      <c r="HG6" t="n">
+      <c r="HH6" t="n">
         <v>19048.43</v>
       </c>
-      <c r="HH6" t="n">
+      <c r="HI6" t="n">
         <v>19878.4</v>
       </c>
-      <c r="HI6" t="n">
+      <c r="HJ6" t="n">
         <v>19297.43</v>
       </c>
-      <c r="HJ6" t="n">
+      <c r="HK6" t="n">
         <v>19893.44</v>
       </c>
-      <c r="HK6" t="n">
+      <c r="HL6" t="n">
         <v>22287.43</v>
       </c>
-      <c r="HL6" t="n">
+      <c r="HM6" t="n">
         <v>19746.23</v>
       </c>
-      <c r="HM6" t="n">
+      <c r="HN6" t="n">
         <v>18439.85</v>
       </c>
-      <c r="HN6" t="n">
+      <c r="HO6" t="n">
         <v>18250.94</v>
       </c>
-      <c r="HO6" t="n">
+      <c r="HP6" t="n">
         <v>18306.62</v>
       </c>
-      <c r="HP6" t="n">
+      <c r="HQ6" t="n">
         <v>17607.08</v>
       </c>
-      <c r="HQ6" t="n">
+      <c r="HR6" t="n">
         <v>17362.4</v>
       </c>
-      <c r="HR6" t="n">
+      <c r="HS6" t="n">
         <v>16957.18</v>
       </c>
-      <c r="HS6" t="n">
+      <c r="HT6" t="n">
         <v>17115.34</v>
       </c>
-      <c r="HT6" t="n">
+      <c r="HU6" t="n">
         <v>17441.44</v>
       </c>
-      <c r="HU6" t="n">
+      <c r="HV6" t="n">
         <v>17106.89</v>
       </c>
-      <c r="HV6" t="n">
+      <c r="HW6" t="n">
         <v>17937.58</v>
       </c>
-      <c r="HW6" t="n">
+      <c r="HX6" t="n">
         <v>21245.12</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="HY6" t="n">
         <v>17278.43</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="HZ6" t="n">
         <v>16346.89</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="IA6" t="n">
         <v>16015.18</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="IB6" t="n">
         <v>16234.11</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IC6" t="n">
         <v>15713.28</v>
       </c>
-      <c r="IC6" t="n">
+      <c r="ID6" t="n">
         <v>15358.29</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="IE6" t="n">
         <v>15098.04</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IF6" t="n">
         <v>15243.74</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IG6" t="n">
         <v>15864.91</v>
       </c>
-      <c r="IG6" t="n">
+      <c r="IH6" t="n">
         <v>15545.47</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="II6" t="n">
         <v>16642.65</v>
       </c>
-      <c r="II6" t="n">
+      <c r="IJ6" t="n">
         <v>16727.06</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IK6" t="n">
         <v>15688.8</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IL6" t="n">
         <v>14780</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IM6" t="n">
         <v>14484.61</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IN6" t="n">
         <v>15064.6</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IO6" t="n">
         <v>14370.13</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IP6" t="n">
         <v>14071.62</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IQ6" t="n">
         <v>13943.44</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="IR6" t="n">
         <v>13942.28</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IS6" t="n">
         <v>14622.99</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IT6" t="n">
         <v>14362.12</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IU6" t="n">
         <v>14910.39</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IV6" t="n">
         <v>17018.98</v>
       </c>
-      <c r="IV6" t="n">
+      <c r="IW6" t="n">
         <v>14652.65</v>
       </c>
-      <c r="IW6" t="n">
+      <c r="IX6" t="n">
         <v>13877.7</v>
       </c>
-      <c r="IX6" t="n">
+      <c r="IY6" t="n">
         <v>13589.45</v>
       </c>
-      <c r="IY6" t="n">
+      <c r="IZ6" t="n">
         <v>13894.69</v>
       </c>
-      <c r="IZ6" t="n">
+      <c r="JA6" t="n">
         <v>13378.68</v>
       </c>
-      <c r="JA6" t="n">
+      <c r="JB6" t="n">
         <v>13156.47</v>
       </c>
-      <c r="JB6" t="n">
+      <c r="JC6" t="n">
         <v>13006.04</v>
       </c>
-      <c r="JC6" t="n">
+      <c r="JD6" t="n">
         <v>13075.45</v>
       </c>
-      <c r="JD6" t="n">
+      <c r="JE6" t="n">
         <v>13675.5</v>
       </c>
-      <c r="JE6" t="n">
+      <c r="JF6" t="n">
         <v>13235.4</v>
       </c>
-      <c r="JF6" t="n">
+      <c r="JG6" t="n">
         <v>13983</v>
       </c>
-      <c r="JG6" t="n">
+      <c r="JH6" t="n">
         <v>16093.9</v>
       </c>
-      <c r="JH6" t="n">
+      <c r="JI6" t="n">
         <v>13455.5</v>
       </c>
-      <c r="JI6" t="inlineStr"/>
       <c r="JJ6" t="inlineStr"/>
       <c r="JK6" t="inlineStr"/>
       <c r="JL6" t="inlineStr"/>
@@ -7407,6 +7426,7 @@
       <c r="PQ6" t="inlineStr"/>
       <c r="PR6" t="inlineStr"/>
       <c r="PS6" t="inlineStr"/>
+      <c r="PT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -7416,804 +7436,806 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D7" t="n">
         <v>18.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>7.7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>7.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>6.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>6.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>6.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>5.6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>5.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.2</v>
       </c>
       <c r="N7" t="n">
         <v>4.2</v>
       </c>
       <c r="O7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P7" t="n">
         <v>-3.9</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>10.3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>10.4</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>11.1</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>9.4</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>9.9</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9.5</v>
       </c>
       <c r="W7" t="n">
         <v>9.5</v>
       </c>
       <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.2</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>10.8</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>10.9</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>6.6</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>5.4</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>4.8</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>4.7</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>4</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>4.8</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>4.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>4.3</v>
       </c>
       <c r="AI7" t="n">
         <v>4.3</v>
       </c>
       <c r="AJ7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AK7" t="n">
         <v>3.5</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>3.1</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>17.2</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2.8</v>
       </c>
       <c r="AP7" t="n">
         <v>2.8</v>
       </c>
       <c r="AQ7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AR7" t="n">
         <v>2.2</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>3.3</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>3.6</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>3.9</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>3.6</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>6</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>-13.8</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>3.4</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>5.7</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>6.3</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>7.2</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>6.5</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>6.1</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>6.6</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>7.3</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>6.2</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>6.1</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>3.3</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7" t="n">
         <v>19.4</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7" t="n">
         <v>8.1</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>7.6</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>7.2</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>6.6</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>7.4</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>7.2</v>
       </c>
       <c r="BR7" t="n">
         <v>7.2</v>
       </c>
       <c r="BS7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BT7" t="n">
         <v>6.3</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>6</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>4.4</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>-4.8</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BX7" t="n">
         <v>15.1</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BY7" t="n">
         <v>4.9</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>3.2</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>3.8</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>3.7</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>1.8</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>2.9</v>
       </c>
       <c r="CD7" t="n">
         <v>2.9</v>
       </c>
       <c r="CE7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="CF7" t="n">
         <v>1.8</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>3.7</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>6.2</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7" t="n">
         <v>17</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CJ7" t="n">
         <v>-17.6</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CK7" t="n">
         <v>2.9</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CL7" t="n">
         <v>3.5</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>3.8</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CN7" t="n">
         <v>4.2</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CO7" t="n">
         <v>5.6</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>5.4</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CQ7" t="n">
         <v>5.3</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CR7" t="n">
         <v>6.7</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CS7" t="n">
         <v>5.4</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CT7" t="n">
         <v>5.2</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CU7" t="n">
         <v>3.3</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CV7" t="n">
         <v>22.5</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CW7" t="n">
         <v>7.1</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>7.7</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>8</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>5.7</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DB7" t="n">
         <v>9.5</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DC7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DD7" t="n">
         <v>11</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DE7" t="n">
         <v>10.8</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DF7" t="n">
         <v>11.8</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DG7" t="n">
         <v>17.2</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DH7" t="n">
         <v>4.4</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DI7" t="n">
         <v>7.7</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DJ7" t="n">
         <v>10.7</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>10.5</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>13.3</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>10</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>10.8</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>10</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>10.4</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>10.6</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>3</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>13.8</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>12</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>11.9</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>12.7</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>14.7</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>14.3</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>14.4</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>15.4</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>14.7</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>14.8</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>10.3</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>42.5</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>16.7</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>16.3</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>16.6</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>13.8</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>16</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>15.5</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>15.7</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>15.2</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>15.8</v>
       </c>
       <c r="EO7" t="n">
         <v>15.8</v>
       </c>
       <c r="EP7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="EQ7" t="n">
         <v>22</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>-0.8</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>11.8</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>15</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>14.1</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>16</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>11.5</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>11.6</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>11.5</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>11.2</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>11.3</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>10.9</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>12</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FE7" t="n">
         <v>12.7</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FF7" t="n">
         <v>9</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="FG7" t="n">
         <v>10.6</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="FH7" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FI7" t="n">
         <v>10.9</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>12.3</v>
       </c>
       <c r="FJ7" t="n">
         <v>12.3</v>
       </c>
       <c r="FK7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="FL7" t="n">
         <v>12.9</v>
       </c>
-      <c r="FL7" t="n">
+      <c r="FM7" t="n">
         <v>10.7</v>
       </c>
-      <c r="FM7" t="n">
+      <c r="FN7" t="n">
         <v>11.1</v>
       </c>
-      <c r="FN7" t="n">
+      <c r="FO7" t="n">
         <v>6</v>
       </c>
-      <c r="FO7" t="n">
+      <c r="FP7" t="n">
         <v>31.2</v>
       </c>
-      <c r="FP7" t="n">
+      <c r="FQ7" t="n">
         <v>12.1</v>
       </c>
-      <c r="FQ7" t="n">
+      <c r="FR7" t="n">
         <v>13.6</v>
       </c>
-      <c r="FR7" t="n">
+      <c r="FS7" t="n">
         <v>13.4</v>
       </c>
-      <c r="FS7" t="n">
+      <c r="FT7" t="n">
         <v>13</v>
       </c>
-      <c r="FT7" t="n">
+      <c r="FU7" t="n">
         <v>15</v>
       </c>
-      <c r="FU7" t="n">
+      <c r="FV7" t="n">
         <v>15.1</v>
       </c>
-      <c r="FV7" t="n">
+      <c r="FW7" t="n">
         <v>14.5</v>
       </c>
-      <c r="FW7" t="n">
+      <c r="FX7" t="n">
         <v>13.9</v>
       </c>
-      <c r="FX7" t="n">
+      <c r="FY7" t="n">
         <v>15.1</v>
       </c>
-      <c r="FY7" t="n">
+      <c r="FZ7" t="n">
         <v>16.7</v>
       </c>
-      <c r="FZ7" t="n">
+      <c r="GA7" t="n">
         <v>25.1</v>
       </c>
-      <c r="GA7" t="n">
+      <c r="GB7" t="n">
         <v>-4.6</v>
       </c>
-      <c r="GB7" t="n">
+      <c r="GC7" t="n">
         <v>12.7</v>
       </c>
-      <c r="GC7" t="n">
+      <c r="GD7" t="n">
         <v>13.9</v>
       </c>
-      <c r="GD7" t="n">
+      <c r="GE7" t="n">
         <v>14</v>
       </c>
-      <c r="GE7" t="n">
+      <c r="GF7" t="n">
         <v>15.3</v>
       </c>
-      <c r="GF7" t="n">
+      <c r="GG7" t="n">
         <v>13.3</v>
       </c>
-      <c r="GG7" t="n">
+      <c r="GH7" t="n">
         <v>12.2</v>
       </c>
-      <c r="GH7" t="n">
+      <c r="GI7" t="n">
         <v>12.6</v>
       </c>
-      <c r="GI7" t="n">
+      <c r="GJ7" t="n">
         <v>12.8</v>
       </c>
-      <c r="GJ7" t="n">
+      <c r="GK7" t="n">
         <v>11.5</v>
       </c>
-      <c r="GK7" t="n">
+      <c r="GL7" t="n">
         <v>10.5</v>
       </c>
-      <c r="GL7" t="n">
+      <c r="GM7" t="n">
         <v>8</v>
       </c>
-      <c r="GM7" t="n">
+      <c r="GN7" t="n">
         <v>22.1</v>
       </c>
-      <c r="GN7" t="n">
+      <c r="GO7" t="n">
         <v>11.9</v>
       </c>
-      <c r="GO7" t="n">
+      <c r="GP7" t="n">
         <v>10.9</v>
       </c>
-      <c r="GP7" t="n">
+      <c r="GQ7" t="n">
         <v>9</v>
       </c>
-      <c r="GQ7" t="n">
+      <c r="GR7" t="n">
         <v>8.5</v>
       </c>
-      <c r="GR7" t="n">
+      <c r="GS7" t="n">
         <v>9.4</v>
       </c>
-      <c r="GS7" t="n">
+      <c r="GT7" t="n">
         <v>9.1</v>
       </c>
-      <c r="GT7" t="n">
+      <c r="GU7" t="n">
         <v>9.6</v>
       </c>
-      <c r="GU7" t="n">
+      <c r="GV7" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="GV7" t="n">
+      <c r="GW7" t="n">
         <v>9</v>
       </c>
-      <c r="GW7" t="n">
+      <c r="GX7" t="n">
         <v>10.1</v>
       </c>
-      <c r="GX7" t="n">
+      <c r="GY7" t="n">
         <v>14</v>
       </c>
-      <c r="GY7" t="n">
+      <c r="GZ7" t="n">
         <v>7.8</v>
       </c>
-      <c r="GZ7" t="n">
+      <c r="HA7" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="HA7" t="n">
+      <c r="HB7" t="n">
         <v>9.6</v>
       </c>
-      <c r="HB7" t="n">
+      <c r="HC7" t="n">
         <v>10</v>
       </c>
-      <c r="HC7" t="n">
+      <c r="HD7" t="n">
         <v>12.1</v>
       </c>
-      <c r="HD7" t="n">
+      <c r="HE7" t="n">
         <v>10.9</v>
       </c>
-      <c r="HE7" t="n">
+      <c r="HF7" t="n">
         <v>11.8</v>
       </c>
-      <c r="HF7" t="n">
+      <c r="HG7" t="n">
         <v>12.2</v>
       </c>
-      <c r="HG7" t="n">
+      <c r="HH7" t="n">
         <v>11.3</v>
       </c>
-      <c r="HH7" t="n">
+      <c r="HI7" t="n">
         <v>14</v>
       </c>
-      <c r="HI7" t="n">
+      <c r="HJ7" t="n">
         <v>12.8</v>
       </c>
-      <c r="HJ7" t="n">
+      <c r="HK7" t="n">
         <v>10.9</v>
       </c>
-      <c r="HK7" t="n">
+      <c r="HL7" t="n">
         <v>4.9</v>
       </c>
-      <c r="HL7" t="n">
+      <c r="HM7" t="n">
         <v>14.3</v>
       </c>
-      <c r="HM7" t="n">
+      <c r="HN7" t="n">
         <v>12.8</v>
       </c>
-      <c r="HN7" t="n">
+      <c r="HO7" t="n">
         <v>14</v>
       </c>
-      <c r="HO7" t="n">
+      <c r="HP7" t="n">
         <v>12.8</v>
       </c>
-      <c r="HP7" t="n">
+      <c r="HQ7" t="n">
         <v>12.1</v>
       </c>
-      <c r="HQ7" t="n">
+      <c r="HR7" t="n">
         <v>13.1</v>
-      </c>
-      <c r="HR7" t="n">
-        <v>12.3</v>
       </c>
       <c r="HS7" t="n">
         <v>12.3</v>
       </c>
       <c r="HT7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="HU7" t="n">
         <v>9.9</v>
       </c>
-      <c r="HU7" t="n">
+      <c r="HV7" t="n">
         <v>10.1</v>
       </c>
-      <c r="HV7" t="n">
+      <c r="HW7" t="n">
         <v>7.8</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HX7" t="n">
         <v>27</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="HY7" t="n">
         <v>10.1</v>
-      </c>
-      <c r="HY7" t="n">
-        <v>10.6</v>
       </c>
       <c r="HZ7" t="n">
         <v>10.6</v>
       </c>
       <c r="IA7" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="IB7" t="n">
         <v>7.8</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IC7" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="IC7" t="n">
+      <c r="ID7" t="n">
         <v>9.1</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="IE7" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IF7" t="n">
         <v>9.6</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IG7" t="n">
         <v>8.5</v>
       </c>
-      <c r="IG7" t="n">
+      <c r="IH7" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="II7" t="n">
         <v>11.6</v>
       </c>
-      <c r="II7" t="n">
+      <c r="IJ7" t="n">
         <v>-1.7</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IK7" t="n">
         <v>7.1</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IL7" t="n">
         <v>6.5</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IM7" t="n">
         <v>6.6</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IN7" t="n">
         <v>8.4</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IO7" t="n">
         <v>7.4</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IP7" t="n">
         <v>7</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IQ7" t="n">
         <v>7.2</v>
       </c>
-      <c r="IQ7" t="n">
+      <c r="IR7" t="n">
         <v>6.6</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IS7" t="n">
         <v>6.9</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IT7" t="n">
         <v>8.5</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IU7" t="n">
         <v>6.6</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IV7" t="n">
         <v>5.8</v>
       </c>
-      <c r="IV7" t="n">
+      <c r="IW7" t="n">
         <v>8.9</v>
       </c>
-      <c r="IW7" t="n">
+      <c r="IX7" t="n">
         <v>11.2</v>
       </c>
-      <c r="IX7" t="n">
+      <c r="IY7" t="n">
         <v>11.8</v>
       </c>
-      <c r="IY7" t="n">
+      <c r="IZ7" t="n">
         <v>13.4</v>
       </c>
-      <c r="IZ7" t="n">
+      <c r="JA7" t="n">
         <v>17.4</v>
       </c>
-      <c r="JA7" t="n">
+      <c r="JB7" t="n">
         <v>17.5</v>
       </c>
-      <c r="JB7" t="n">
+      <c r="JC7" t="n">
         <v>19.5</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JD7" t="n">
         <v>20.1</v>
       </c>
-      <c r="JD7" t="n">
+      <c r="JE7" t="n">
         <v>21.8</v>
       </c>
-      <c r="JE7" t="n">
+      <c r="JF7" t="n">
         <v>16.7</v>
       </c>
-      <c r="JF7" t="n">
+      <c r="JG7" t="n">
         <v>9.4</v>
       </c>
-      <c r="JG7" t="n">
+      <c r="JH7" t="n">
         <v>34.2</v>
       </c>
-      <c r="JH7" t="n">
+      <c r="JI7" t="n">
         <v>20.1</v>
       </c>
-      <c r="JI7" t="inlineStr"/>
       <c r="JJ7" t="inlineStr"/>
       <c r="JK7" t="inlineStr"/>
       <c r="JL7" t="inlineStr"/>
@@ -8380,6 +8402,7 @@
       <c r="PQ7" t="inlineStr"/>
       <c r="PR7" t="inlineStr"/>
       <c r="PS7" t="inlineStr"/>
+      <c r="PT7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
